--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1127394.618594094</v>
+        <v>1151996.079378955</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6267467.103685366</v>
+        <v>6267467.103685367</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>182.1246925118487</v>
       </c>
       <c r="U3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,13 +859,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="E5" t="n">
         <v>205.5178444382804</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.59150886198138</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>152.6562894669719</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,61 +1145,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>162.1947822849135</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>158.8413341243909</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>19.09345814857096</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>141.1498565181168</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
         <v>205.5178444382804</v>
@@ -1436,7 +1436,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>29.90684812882265</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.69006202085835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>36.6156848048708</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>51.84016209315949</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.809496073036132</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>68.67434453202564</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2381,7 +2381,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>59.24636080559989</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>100.186651998545</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,52 +2488,52 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>134.8607399155357</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
@@ -2804,61 +2804,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H30" t="n">
-        <v>26.27111766073024</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.92691371295918</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3503,7 +3503,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>56.96494961966629</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3782,25 +3782,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T41" t="n">
-        <v>21.16030022554292</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>152.6562894669719</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>52.64939492479341</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>128.7350472114737</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>196.9834948154596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.5080104335871</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="C2" t="n">
-        <v>258.5080104335871</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="D2" t="n">
-        <v>258.5080104335871</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="E2" t="n">
-        <v>258.5080104335871</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F2" t="n">
-        <v>251.5625096843836</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G2" t="n">
         <v>236.1051990630351</v>
@@ -4334,7 +4334,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X2" t="n">
-        <v>673.6955749553657</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y2" t="n">
-        <v>466.1017926944764</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>363.520167886122</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>363.520167886122</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
     </row>
     <row r="4">
@@ -4507,22 +4507,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C5" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="D5" t="n">
         <v>651.2927635848137</v>
@@ -4607,10 +4607,10 @@
         <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y5" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>171.6753844757189</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>171.6753844757189</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>171.6753844757189</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>171.6753844757189</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>171.6753844757189</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>32.94455905833439</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>32.94455905833439</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,10 +4650,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4671,25 +4671,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X6" t="n">
-        <v>566.7035761171468</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.1097938562575</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
         <v>16.44142755506243</v>
@@ -4762,13 +4762,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>239.4925204373003</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4832,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>661.6255857082823</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>454.031803447393</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>246.4380211865037</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>246.4380211865037</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>246.4380211865037</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>246.4380211865037</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>471.90198284767</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>471.90198284767</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>322.9675731864187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>163.7301181809632</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
         <v>17.19556020784815</v>
@@ -4884,22 +4884,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N9" t="n">
-        <v>618.608711759224</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4911,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>600.5984617496947</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="W9" t="n">
-        <v>679.4957651085592</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="X9" t="n">
-        <v>679.4957651085592</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y9" t="n">
-        <v>471.90198284767</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4993,19 +4993,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5048,10 +5048,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>807.2329312674061</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>633.815586718075</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5303,25 +5303,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.9442659510175</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>460.9442659510175</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="D15" t="n">
-        <v>460.9442659510175</v>
+        <v>498.6839388107434</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>339.4464838052879</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>192.9119258321728</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>54.18110041478835</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>54.18110041478835</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5361,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>668.5380482119068</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>668.5380482119068</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>668.5380482119068</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>460.9442659510175</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>460.9442659510175</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>460.9442659510175</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>460.9442659510175</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5601,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>730.8505943024719</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.8505943024719</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5862,19 +5862,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5926,10 +5926,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -6017,16 +6017,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U23" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
         <v>19.28114311021272</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>492.4565854669654</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C24" t="n">
-        <v>318.0035561858384</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D24" t="n">
-        <v>318.0035561858384</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E24" t="n">
-        <v>158.7661011803829</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,13 +6072,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>660.6719224870335</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>246.5578745174942</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>454.3181732824481</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X27" t="n">
-        <v>454.3181732824481</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y27" t="n">
-        <v>246.5578745174942</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1172547386423</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="34">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>728.9050472788936</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C39" t="n">
-        <v>728.9050472788936</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="F39" t="n">
         <v>362.4348659156472</v>
@@ -7260,10 +7260,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X39" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9050472788936</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
     </row>
     <row r="41">
@@ -7412,40 +7412,40 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
         <v>16.44142755506243</v>
@@ -7491,43 +7491,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X42" t="n">
         <v>566.7035761171468</v>
@@ -7649,10 +7649,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.7410566979059</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C45" t="n">
-        <v>106.7410566979059</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D45" t="n">
-        <v>106.7410566979059</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E45" t="n">
-        <v>106.7410566979059</v>
+        <v>146.4768287787733</v>
       </c>
       <c r="F45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7770,7 +7770,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.7410566979059</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>201.9320071929585</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9720,16 +9720,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11072,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11388,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,10 +23312,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>143.7231242791326</v>
@@ -23324,7 +23324,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23352,13 +23352,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>82.32859610767382</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.46777213178478</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V14" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23592,10 +23592,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>52.78094804654428</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>119.8430090106783</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>363.4633956979714</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>141.1003479476514</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>88.9707359233753</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24102,7 +24102,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>46.82786452690794</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24269,7 +24269,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,19 +24291,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>52.98908343089657</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.4960437787594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>22.78434053986527</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>67.81068582972321</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H30" t="n">
-        <v>85.96432657576622</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24856,7 +24856,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>186.6629199992865</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>48.16969849197095</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,7 +25011,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>34.30853052353729</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,10 +25284,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25391,7 +25391,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25473,13 +25473,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>88.10426277371759</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25670,25 +25670,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T41" t="n">
-        <v>201.9355493385884</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>19.02688163686591</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,7 +25770,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>153.1235902786841</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25950,10 +25950,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>16.33416518191015</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25962,7 +25962,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -26010,7 +26010,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.699200961844781</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386659.2649967215</v>
+        <v>386659.2649967214</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386659.2649967212</v>
+        <v>386659.2649967214</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386659.2649967215</v>
+        <v>386659.2649967214</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
       <c r="F2" t="n">
         <v>189309.1702019179</v>
@@ -26329,31 +26329,31 @@
         <v>199392.8070375987</v>
       </c>
       <c r="H2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="I2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="K2" t="n">
         <v>199392.8070375987</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>199392.8070375988</v>
       </c>
-      <c r="L2" t="n">
-        <v>199392.8070375989</v>
-      </c>
       <c r="M2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="N2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
         <v>189309.1702019179</v>
       </c>
       <c r="P2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315381.2204626939</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="C4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="D4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62246.99993233875</v>
+        <v>65119.84591227322</v>
       </c>
       <c r="C6" t="n">
-        <v>131120.7565140286</v>
+        <v>133993.602493963</v>
       </c>
       <c r="D6" t="n">
-        <v>131120.7565140286</v>
+        <v>133993.602493963</v>
       </c>
       <c r="E6" t="n">
-        <v>149970.3389448246</v>
+        <v>152843.184924759</v>
       </c>
       <c r="F6" t="n">
-        <v>149970.3389448245</v>
+        <v>152843.184924759</v>
       </c>
       <c r="G6" t="n">
-        <v>146699.85396866</v>
+        <v>149727.8270870507</v>
       </c>
       <c r="H6" t="n">
-        <v>156428.8969428272</v>
+        <v>159456.8700612178</v>
       </c>
       <c r="I6" t="n">
-        <v>156428.8969428272</v>
+        <v>159456.8700612178</v>
       </c>
       <c r="J6" t="n">
-        <v>102656.3860526177</v>
+        <v>105684.3591710084</v>
       </c>
       <c r="K6" t="n">
-        <v>156428.8969428272</v>
+        <v>159456.8700612178</v>
       </c>
       <c r="L6" t="n">
-        <v>156428.8969428273</v>
+        <v>159456.8700612178</v>
       </c>
       <c r="M6" t="n">
-        <v>156428.8969428272</v>
+        <v>159456.8700612178</v>
       </c>
       <c r="N6" t="n">
-        <v>156428.8969428271</v>
+        <v>159456.8700612178</v>
       </c>
       <c r="O6" t="n">
-        <v>149970.3389448245</v>
+        <v>152843.184924759</v>
       </c>
       <c r="P6" t="n">
-        <v>149970.3389448246</v>
+        <v>152843.184924759</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>387.6743356562363</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8390559086907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>18.04003618297293</v>
       </c>
       <c r="U3" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>345.4720307497525</v>
       </c>
       <c r="E5" t="n">
         <v>176.4125256339814</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>360.5200898075386</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>73.8051239894337</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,16 +27752,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>53.11669573650556</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,16 +27865,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>64.25451543974043</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>206.8479239324039</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>110.5451266428028</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771058</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,10 +34702,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>21.52426467247106</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35662,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>127.1185794980173</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35969,10 +35969,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>197.2140931478448</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38099,7 +38099,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38108,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151996.079378955</v>
+        <v>1152780.225316984</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6267467.103685367</v>
+        <v>6267467.103685366</v>
       </c>
     </row>
     <row r="11">
@@ -656,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>148.8506349098461</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>19.20171008547518</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.52706304561151</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>182.1246925118487</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>9.211010870930394</v>
-      </c>
-      <c r="E5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.59150886198138</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>98.63020827869603</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,55 +1059,55 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G8" t="n">
-        <v>162.1947822849135</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>19.09345814857096</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1433,7 +1435,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>29.90684812882265</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>144.3759709686855</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,10 +1703,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6156848048708</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1841,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="D17" t="n">
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,10 +1973,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>68.67434453202564</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>114.4791386772755</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.24636080559989</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>168.4777030685013</v>
       </c>
       <c r="W27" t="n">
-        <v>183.8842973311964</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,22 +2921,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>57.35516313269012</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2968,49 +2970,49 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>80.33470701582003</v>
-      </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118.3634851578964</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>34.584530432386</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>49.31110394229523</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3402,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>56.96494961966629</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3630,7 +3632,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>161.5654296360975</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3867,10 +3869,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>152.6562894669719</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>152.8594177564602</v>
       </c>
     </row>
     <row r="43">
@@ -3977,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>171.0294181666926</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4062,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>128.7350472114737</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>173.3980921041203</v>
       </c>
     </row>
     <row r="46">
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.6884303378189</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="C2" t="n">
-        <v>670.6884303378189</v>
+        <v>454.031803447393</v>
       </c>
       <c r="D2" t="n">
-        <v>670.6884303378189</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E2" t="n">
-        <v>463.0946480769296</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F2" t="n">
-        <v>443.6989813239244</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.9263856252326</v>
+        <v>638.5512795730664</v>
       </c>
       <c r="C3" t="n">
-        <v>155.9263856252326</v>
+        <v>464.0982502919394</v>
       </c>
       <c r="D3" t="n">
-        <v>155.9263856252326</v>
+        <v>315.1638406306881</v>
       </c>
       <c r="E3" t="n">
         <v>155.9263856252326</v>
@@ -4413,19 +4415,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M3" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N3" t="n">
-        <v>626.8294255367553</v>
-      </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>363.520167886122</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>363.520167886122</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>155.9263856252326</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>155.9263856252326</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>155.9263856252326</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.9263856252326</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
         <v>16.44142755506243</v>
@@ -4525,13 +4527,13 @@
         <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D5" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E5" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="F5" t="n">
         <v>443.6989813239244</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>236.1051990630351</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4568,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,16 +4603,16 @@
         <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171.6753844757189</v>
+        <v>312.6645278422145</v>
       </c>
       <c r="C6" t="n">
-        <v>171.6753844757189</v>
+        <v>312.6645278422145</v>
       </c>
       <c r="D6" t="n">
-        <v>171.6753844757189</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="E6" t="n">
-        <v>171.6753844757189</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6753844757189</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>32.94455905833439</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>32.94455905833439</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4647,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>339.8907214957869</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W6" t="n">
-        <v>339.8907214957869</v>
+        <v>312.6645278422145</v>
       </c>
       <c r="X6" t="n">
-        <v>339.8907214957869</v>
+        <v>312.6645278422145</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.8907214957869</v>
+        <v>312.6645278422145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
         <v>16.44142755506243</v>
@@ -4753,22 +4755,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F8" t="n">
-        <v>192.3445302212503</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>600.5984617496947</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V9" t="n">
-        <v>393.0046794888054</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W9" t="n">
-        <v>393.0046794888054</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X9" t="n">
-        <v>185.4108972279162</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.4108972279162</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5054,37 +5056,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>137.7041268545529</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5223,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5306,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V14" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W14" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6839388107434</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E15" t="n">
-        <v>339.4464838052879</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F15" t="n">
-        <v>192.9119258321728</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G15" t="n">
-        <v>54.18110041478835</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>54.18110041478835</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="16">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="22">
@@ -5932,7 +5934,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6339,16 +6341,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>793.877657461645</v>
       </c>
       <c r="W27" t="n">
-        <v>778.3154410346802</v>
+        <v>550.428880817545</v>
       </c>
       <c r="X27" t="n">
-        <v>570.4639408291474</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.7036420641935</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>804.9531178486834</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>804.9531178486834</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>804.9531178486834</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
         <v>829.5248650203655</v>
@@ -6658,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>100.4273118130612</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>521.0535470733607</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y33" t="n">
-        <v>313.2932483084068</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C36" t="n">
-        <v>69.84447166430675</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D36" t="n">
-        <v>69.84447166430675</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E36" t="n">
-        <v>69.84447166430675</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F36" t="n">
-        <v>69.84447166430675</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G36" t="n">
-        <v>69.84447166430675</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="H36" t="n">
-        <v>69.84447166430675</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7050,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.9752190668252</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C39" t="n">
-        <v>419.9752190668252</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D39" t="n">
-        <v>419.9752190668252</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E39" t="n">
-        <v>419.9752190668252</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>699.6902223906961</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>699.6902223906961</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>699.6902223906961</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.9752190668252</v>
+        <v>464.5381141589534</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7517,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>566.7035761171468</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="T44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="U44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X44" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="Y44" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="T44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="U44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="V44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="W44" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X44" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.7142837842288</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C45" t="n">
-        <v>305.7142837842288</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D45" t="n">
-        <v>305.7142837842288</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E45" t="n">
-        <v>146.4768287787733</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
         <v>618.608711759224</v>
@@ -7770,7 +7772,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>130.5646958002688</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7845,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>155.3219763666824</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,7 +8546,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>80.31623474114394</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23321,7 +23323,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>82.32859610767382</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>19.30946265260823</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,19 +23548,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>70.32553552659914</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.06909459595326</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.78094804654428</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23783,13 +23785,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>88.9707359233753</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.86437848593511</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,10 +24174,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>52.98908343089657</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24446,7 +24448,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,13 +24581,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>64.32288408092393</v>
       </c>
       <c r="W27" t="n">
-        <v>67.81068582972321</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>114.3280079711477</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>274.3483346048629</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.16969849197095</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>123.0605500230149</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>40.08552890911985</v>
+        <v>4.829496336780821</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25290,13 +25292,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25442,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>88.10426277371759</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>10.11774146774033</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25755,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>19.02688163686591</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>52.82327802084413</v>
       </c>
     </row>
     <row r="43">
@@ -25865,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="45">
@@ -25950,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>16.33416518191015</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>32.28460367318402</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407272.2825369801</v>
+        <v>407272.2825369799</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407272.2825369801</v>
+        <v>407272.2825369799</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386659.2649967212</v>
+        <v>386659.2649967214</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386659.2649967214</v>
+        <v>386659.2649967215</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26322,16 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="H2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="I2" t="n">
         <v>199392.8070375987</v>
@@ -26338,19 +26340,19 @@
         <v>199392.8070375988</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="L2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="M2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="P2" t="n">
         <v>189309.1702019179</v>
@@ -26424,7 +26426,7 @@
         <v>312508.3744827596</v>
       </c>
       <c r="E4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
         <v>23970.50033531152</v>
@@ -26454,7 +26456,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
         <v>23970.50033531152</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65119.84591227322</v>
+        <v>65119.84591227325</v>
       </c>
       <c r="C6" t="n">
-        <v>133993.602493963</v>
+        <v>133993.6024939629</v>
       </c>
       <c r="D6" t="n">
-        <v>133993.602493963</v>
+        <v>133993.6024939629</v>
       </c>
       <c r="E6" t="n">
-        <v>152843.184924759</v>
+        <v>152843.1849247591</v>
       </c>
       <c r="F6" t="n">
         <v>152843.184924759</v>
@@ -26537,16 +26539,16 @@
         <v>149727.8270870507</v>
       </c>
       <c r="H6" t="n">
-        <v>159456.8700612178</v>
+        <v>159456.8700612179</v>
       </c>
       <c r="I6" t="n">
-        <v>159456.8700612178</v>
+        <v>159456.8700612177</v>
       </c>
       <c r="J6" t="n">
         <v>105684.3591710084</v>
       </c>
       <c r="K6" t="n">
-        <v>159456.8700612178</v>
+        <v>159456.8700612179</v>
       </c>
       <c r="L6" t="n">
         <v>159456.8700612178</v>
@@ -27376,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>233.8832067536344</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>387.6743356562363</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27455,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.00612060425583</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>18.04003618297293</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717806</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>345.4720307497525</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>397.665034870781</v>
       </c>
       <c r="G5" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>73.8051239894337</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,7 +27757,7 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>153.0647748822236</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
-        <v>253.1079552302216</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>206.8479239324039</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +28000,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>86.37921479706664</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28068,10 +28070,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W10" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>12.72573192223796</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,7 +35266,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1152780.225316984</v>
+        <v>1083119.889642457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.8506349098461</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.52706304561151</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>145.9317951265773</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.211010870930394</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>201.5900192326605</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W6" t="n">
-        <v>98.63020827869603</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="G8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>192.5500720523642</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,14 +1369,14 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,46 +1621,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>144.3759709686855</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>37.10882487411409</v>
       </c>
       <c r="G21" t="n">
-        <v>114.4791386772755</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>82.46119763909357</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>168.4777030685013</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>224.7290201186385</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>57.35516313269012</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>45.76937707216953</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>34.584530432386</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>30.25537132671717</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>11.86372679529251</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>84.56713651463426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>61.6164265404264</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3632,16 +3632,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>161.5654296360975</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>35.27085777650507</v>
       </c>
       <c r="Y42" t="n">
-        <v>152.8594177564602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,11 +3979,11 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
@@ -3994,58 +3994,58 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y45" t="n">
-        <v>173.3980921041203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661.6255857082823</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>454.031803447393</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>246.4380211865037</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,28 +4354,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>811.9797623848946</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>638.5512795730664</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="C3" t="n">
-        <v>464.0982502919394</v>
+        <v>277.2164168106925</v>
       </c>
       <c r="D3" t="n">
-        <v>315.1638406306881</v>
+        <v>277.2164168106925</v>
       </c>
       <c r="E3" t="n">
-        <v>155.9263856252326</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F3" t="n">
-        <v>155.9263856252326</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
         <v>16.44142755506243</v>
@@ -4533,7 +4533,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>443.6989813239244</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4570,10 +4570,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4594,25 +4594,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.6645278422145</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C6" t="n">
-        <v>312.6645278422145</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D6" t="n">
-        <v>163.7301181809632</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>163.7301181809632</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4655,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>315.088971611581</v>
       </c>
       <c r="V6" t="n">
-        <v>412.2910008509983</v>
+        <v>315.088971611581</v>
       </c>
       <c r="W6" t="n">
-        <v>312.6645278422145</v>
+        <v>315.088971611581</v>
       </c>
       <c r="X6" t="n">
-        <v>312.6645278422145</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y6" t="n">
-        <v>312.6645278422145</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="7">
@@ -4746,13 +4746,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
         <v>16.44142755506243</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4834,22 +4834,22 @@
         <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="U8" t="n">
-        <v>660.5968149695918</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V8" t="n">
-        <v>660.5968149695918</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4895,7 +4895,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
         <v>752.6768192397923</v>
@@ -4916,19 +4916,19 @@
         <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>345.2979091154422</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V9" t="n">
-        <v>345.2979091154422</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W9" t="n">
-        <v>345.2979091154422</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X9" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,19 +5150,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
         <v>16.44142755506243</v>
@@ -5217,19 +5217,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
         <v>16.44142755506243</v>
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>575.067534196224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,7 +5366,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
         <v>366.5706756325438</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>720.9018483060073</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5545,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5603,40 +5603,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5712,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.3395341116723</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C21" t="n">
-        <v>339.3395341116723</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="D21" t="n">
-        <v>339.3395341116723</v>
+        <v>170.1339401916375</v>
       </c>
       <c r="E21" t="n">
-        <v>339.3395341116723</v>
+        <v>170.1339401916375</v>
       </c>
       <c r="F21" t="n">
-        <v>339.3395341116723</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.2071172886402</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2071172886402</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>342.668582052591</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6317,13 +6317,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6341,16 +6341,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>793.877657461645</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>550.428880817545</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X27" t="n">
-        <v>550.428880817545</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y27" t="n">
-        <v>342.668582052591</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6499,16 +6499,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>804.9531178486834</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>804.9531178486834</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>804.9531178486834</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>569.8010096169406</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>569.8010096169406</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>361.9495094114078</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>452.8495312167552</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C33" t="n">
-        <v>452.8495312167552</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D33" t="n">
-        <v>452.8495312167552</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X33" t="n">
-        <v>452.8495312167552</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="Y33" t="n">
-        <v>452.8495312167552</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.0815197256143</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C36" t="n">
-        <v>413.6284904444873</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D36" t="n">
-        <v>264.694080783236</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E36" t="n">
-        <v>105.4566257777805</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F36" t="n">
-        <v>105.4566257777805</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>105.4566257777805</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4566257777805</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7028,10 +7028,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7113,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="D39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3006591534979</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>699.6902223906961</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>699.6902223906961</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>699.6902223906961</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y39" t="n">
-        <v>464.5381141589534</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7420,43 +7420,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>304.2635924286101</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U42" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V42" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W42" t="n">
-        <v>345.2979091154422</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X42" t="n">
-        <v>345.2979091154422</v>
+        <v>304.2635924286101</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.8944568361894</v>
+        <v>304.2635924286101</v>
       </c>
     </row>
     <row r="43">
@@ -7554,16 +7554,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
         <v>672.8764276104736</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
         <v>17.19556020784815</v>
@@ -7730,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8072,7 +8072,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8543,10 +8543,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8941,7 +8941,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9014,10 +9014,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11150,16 +11150,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,7 +11308,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11387,7 +11387,7 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>328.5558052311782</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>64.01572075205127</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.30946265260823</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>3.06909459595326</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>130.9864331150558</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>107.9603875192698</v>
       </c>
       <c r="G21" t="n">
-        <v>22.86437848593511</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>81.70178455167252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>143.9944196840759</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>64.32288408092393</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>26.96596304228106</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>128.1631918897635</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24624,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24764,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>114.3280079711477</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>159.9133187051348</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>325.9427623970988</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>123.0605500230149</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>175.5176138767603</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>262.9346646783187</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>239.481926112544</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.829496336780821</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>96.02865391497454</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>10.11774146774033</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>49.93994077416525</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25724,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>170.5021274269724</v>
       </c>
       <c r="Y42" t="n">
-        <v>52.82327802084413</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25867,10 +25867,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y45" t="n">
-        <v>32.28460367318402</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386659.2649967214</v>
+        <v>386659.2649967212</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407272.2825369799</v>
+        <v>407272.2825369801</v>
       </c>
     </row>
     <row r="8">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>189309.170201918</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
         <v>199392.8070375988</v>
@@ -26337,10 +26337,10 @@
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="L2" t="n">
         <v>199392.8070375988</v>
@@ -26352,10 +26352,10 @@
         <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
+        <v>189309.1702019179</v>
+      </c>
+      <c r="P2" t="n">
         <v>189309.170201918</v>
-      </c>
-      <c r="P2" t="n">
-        <v>189309.1702019179</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65119.84591227325</v>
+        <v>65119.84591227331</v>
       </c>
       <c r="C6" t="n">
         <v>133993.6024939629</v>
       </c>
       <c r="D6" t="n">
-        <v>133993.6024939629</v>
+        <v>133993.6024939631</v>
       </c>
       <c r="E6" t="n">
-        <v>152843.1849247591</v>
+        <v>140205.0227698985</v>
       </c>
       <c r="F6" t="n">
-        <v>152843.184924759</v>
+        <v>140205.0227698985</v>
       </c>
       <c r="G6" t="n">
-        <v>149727.8270870507</v>
+        <v>137509.8164670103</v>
       </c>
       <c r="H6" t="n">
-        <v>159456.8700612179</v>
+        <v>147238.8594411774</v>
       </c>
       <c r="I6" t="n">
-        <v>159456.8700612177</v>
+        <v>147238.8594411773</v>
       </c>
       <c r="J6" t="n">
-        <v>105684.3591710084</v>
+        <v>93466.34855096784</v>
       </c>
       <c r="K6" t="n">
-        <v>159456.8700612179</v>
+        <v>147238.8594411773</v>
       </c>
       <c r="L6" t="n">
-        <v>159456.8700612178</v>
+        <v>147238.8594411774</v>
       </c>
       <c r="M6" t="n">
-        <v>159456.8700612178</v>
+        <v>147238.8594411773</v>
       </c>
       <c r="N6" t="n">
-        <v>159456.8700612178</v>
+        <v>147238.8594411774</v>
       </c>
       <c r="O6" t="n">
-        <v>152843.184924759</v>
+        <v>140205.0227698985</v>
       </c>
       <c r="P6" t="n">
-        <v>152843.184924759</v>
+        <v>140205.0227698985</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.8832067536344</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>193.6878666036893</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.00612060425583</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11.71328532882362</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>31.76164565717806</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>397.665034870781</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>30.54577751176703</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,13 +27700,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>24.35136284831432</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>153.0647748822236</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27818,16 +27818,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>385.7157455161685</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>30.54577751176714</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>85.7229128969819</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.37921479706664</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>113.0991222774871</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35661,7 +35661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37870,16 +37870,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38028,7 +38028,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38107,7 +38107,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>197.2140931478448</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
